--- a/medicine/Autisme/Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre)/Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre).xlsx
+++ b/medicine/Autisme/Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre)/Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pi%C3%A8ce_de_th%C3%A9%C3%A2tre)</t>
+          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bizarre Incident du chien pendant la nuit (The Curious Incident of the Dog in the Night-Time) est une pièce de théâtre de Simon Stephens créée en 2012 au Royal National Theatre de Londres. Il est adapté du roman du même nom de Mark Haddon. 
 Elle remporte un succès critique très important, remportant 7 Laurence Olivier Awards au Royaume-Uni et 5 Tony Awards aux États-Unis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pi%C3%A8ce_de_th%C3%A9%C3%A2tre)</t>
+          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Signification du titre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre provient d'une remarque faite par Sherlock Holmes, le détective créé par Sir Arthur Conan Doyle, dans la nouvelle Flamme d'Argent. Le héros
 est Christopher Boone, qui est un fan du détective britannique.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pi%C3%A8ce_de_th%C3%A9%C3%A2tre)</t>
+          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tribulations de Christopher, un enfant de 15 ans habitant à Swindon (Wiltshire), atteint d'un trouble envahissant du développement.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pi%C3%A8ce_de_th%C3%A9%C3%A2tre)</t>
+          <t>Le_Bizarre_Incident_du_chien_pendant_la_nuit_(pièce_de_théâtre)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Laurence Olivier Awards 2013[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Laurence Olivier Awards 2013
 Meilleure nouvelle pièce
 Meilleur metteur en scène pour Marianne Elliott
 Meilleur acteur pour Luke Treadaway
@@ -585,7 +603,7 @@
 Meilleure conception sonore
 Meilleures lumières
 Meilleurs décors
-Tony Awards 2015[2]
+Tony Awards 2015
 Tony Award de la meilleure pièce
 Tony Award de la meilleure mise en scène pour une pièce pour Marianne Elliott
 Tony Award du meilleur acteur dans une pièce pour Alex Sharp
